--- a/Keywords/keywords-category.xlsx
+++ b/Keywords/keywords-category.xlsx
@@ -16,7 +16,6 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30226,8 +30225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2687"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2632" workbookViewId="0">
-      <selection activeCell="B2670" sqref="B2670"/>
+    <sheetView tabSelected="1" topLeftCell="A986" workbookViewId="0">
+      <selection activeCell="C993" sqref="C993"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38362,7 +38361,7 @@
         <v>26</v>
       </c>
       <c r="C739">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="740" spans="1:3" x14ac:dyDescent="0.25">
@@ -38373,7 +38372,7 @@
         <v>27</v>
       </c>
       <c r="C740">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="741" spans="1:3" x14ac:dyDescent="0.25">
@@ -38384,7 +38383,7 @@
         <v>28</v>
       </c>
       <c r="C741">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="742" spans="1:3" x14ac:dyDescent="0.25">
@@ -38395,7 +38394,7 @@
         <v>29</v>
       </c>
       <c r="C742">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="743" spans="1:3" x14ac:dyDescent="0.25">
@@ -38406,7 +38405,7 @@
         <v>30</v>
       </c>
       <c r="C743">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="744" spans="1:3" x14ac:dyDescent="0.25">
@@ -38417,7 +38416,7 @@
         <v>31</v>
       </c>
       <c r="C744">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="745" spans="1:3" x14ac:dyDescent="0.25">
@@ -38428,7 +38427,7 @@
         <v>32</v>
       </c>
       <c r="C745">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="746" spans="1:3" x14ac:dyDescent="0.25">
@@ -38439,7 +38438,7 @@
         <v>33</v>
       </c>
       <c r="C746">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="747" spans="1:3" x14ac:dyDescent="0.25">
@@ -38450,7 +38449,7 @@
         <v>34</v>
       </c>
       <c r="C747">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="748" spans="1:3" x14ac:dyDescent="0.25">
@@ -38461,7 +38460,7 @@
         <v>35</v>
       </c>
       <c r="C748">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="749" spans="1:3" x14ac:dyDescent="0.25">
@@ -38472,7 +38471,7 @@
         <v>36</v>
       </c>
       <c r="C749">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="750" spans="1:3" x14ac:dyDescent="0.25">
@@ -38483,7 +38482,7 @@
         <v>37</v>
       </c>
       <c r="C750">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="751" spans="1:3" x14ac:dyDescent="0.25">
@@ -38494,7 +38493,7 @@
         <v>38</v>
       </c>
       <c r="C751">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="752" spans="1:3" x14ac:dyDescent="0.25">
@@ -38505,7 +38504,7 @@
         <v>39</v>
       </c>
       <c r="C752">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="753" spans="1:3" x14ac:dyDescent="0.25">
@@ -38516,7 +38515,7 @@
         <v>40</v>
       </c>
       <c r="C753">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="754" spans="1:3" x14ac:dyDescent="0.25">
@@ -38527,7 +38526,7 @@
         <v>41</v>
       </c>
       <c r="C754">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="755" spans="1:3" x14ac:dyDescent="0.25">
@@ -38538,7 +38537,7 @@
         <v>42</v>
       </c>
       <c r="C755">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="756" spans="1:3" x14ac:dyDescent="0.25">
@@ -38549,7 +38548,7 @@
         <v>43</v>
       </c>
       <c r="C756">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="757" spans="1:3" x14ac:dyDescent="0.25">
@@ -38560,7 +38559,7 @@
         <v>44</v>
       </c>
       <c r="C757">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="758" spans="1:3" x14ac:dyDescent="0.25">
@@ -38571,7 +38570,7 @@
         <v>45</v>
       </c>
       <c r="C758">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="759" spans="1:3" x14ac:dyDescent="0.25">
@@ -38582,7 +38581,7 @@
         <v>46</v>
       </c>
       <c r="C759">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="760" spans="1:3" x14ac:dyDescent="0.25">
@@ -38593,7 +38592,7 @@
         <v>47</v>
       </c>
       <c r="C760">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="761" spans="1:3" x14ac:dyDescent="0.25">
@@ -38604,7 +38603,7 @@
         <v>48</v>
       </c>
       <c r="C761">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="762" spans="1:3" x14ac:dyDescent="0.25">
@@ -38615,7 +38614,7 @@
         <v>49</v>
       </c>
       <c r="C762">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="763" spans="1:3" x14ac:dyDescent="0.25">
@@ -38626,7 +38625,7 @@
         <v>50</v>
       </c>
       <c r="C763">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="764" spans="1:3" x14ac:dyDescent="0.25">
@@ -38637,7 +38636,7 @@
         <v>51</v>
       </c>
       <c r="C764">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="765" spans="1:3" x14ac:dyDescent="0.25">
@@ -38648,7 +38647,7 @@
         <v>52</v>
       </c>
       <c r="C765">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="766" spans="1:3" x14ac:dyDescent="0.25">
@@ -38659,7 +38658,7 @@
         <v>53</v>
       </c>
       <c r="C766">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="767" spans="1:3" x14ac:dyDescent="0.25">
@@ -38670,7 +38669,7 @@
         <v>54</v>
       </c>
       <c r="C767">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="768" spans="1:3" x14ac:dyDescent="0.25">
@@ -38681,7 +38680,7 @@
         <v>55</v>
       </c>
       <c r="C768">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="769" spans="1:3" x14ac:dyDescent="0.25">
@@ -38692,7 +38691,7 @@
         <v>56</v>
       </c>
       <c r="C769">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="770" spans="1:3" x14ac:dyDescent="0.25">
@@ -38703,7 +38702,7 @@
         <v>57</v>
       </c>
       <c r="C770">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="771" spans="1:3" x14ac:dyDescent="0.25">
@@ -38714,7 +38713,7 @@
         <v>58</v>
       </c>
       <c r="C771">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="772" spans="1:3" x14ac:dyDescent="0.25">
@@ -38725,7 +38724,7 @@
         <v>59</v>
       </c>
       <c r="C772">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="773" spans="1:3" x14ac:dyDescent="0.25">
@@ -38736,7 +38735,7 @@
         <v>60</v>
       </c>
       <c r="C773">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="774" spans="1:3" x14ac:dyDescent="0.25">
@@ -38747,7 +38746,7 @@
         <v>61</v>
       </c>
       <c r="C774">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="775" spans="1:3" x14ac:dyDescent="0.25">
@@ -38758,7 +38757,7 @@
         <v>62</v>
       </c>
       <c r="C775">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="776" spans="1:3" x14ac:dyDescent="0.25">
@@ -38769,7 +38768,7 @@
         <v>63</v>
       </c>
       <c r="C776">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="777" spans="1:3" x14ac:dyDescent="0.25">
@@ -38780,7 +38779,7 @@
         <v>64</v>
       </c>
       <c r="C777">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="778" spans="1:3" x14ac:dyDescent="0.25">
@@ -38791,7 +38790,7 @@
         <v>65</v>
       </c>
       <c r="C778">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="779" spans="1:3" x14ac:dyDescent="0.25">
@@ -38802,7 +38801,7 @@
         <v>66</v>
       </c>
       <c r="C779">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="780" spans="1:3" x14ac:dyDescent="0.25">
@@ -38813,7 +38812,7 @@
         <v>67</v>
       </c>
       <c r="C780">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="781" spans="1:3" x14ac:dyDescent="0.25">
@@ -38824,7 +38823,7 @@
         <v>68</v>
       </c>
       <c r="C781">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="782" spans="1:3" x14ac:dyDescent="0.25">
@@ -38835,7 +38834,7 @@
         <v>69</v>
       </c>
       <c r="C782">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="783" spans="1:3" x14ac:dyDescent="0.25">
@@ -38846,7 +38845,7 @@
         <v>70</v>
       </c>
       <c r="C783">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="784" spans="1:3" x14ac:dyDescent="0.25">
@@ -38857,7 +38856,7 @@
         <v>71</v>
       </c>
       <c r="C784">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="785" spans="1:3" x14ac:dyDescent="0.25">
@@ -38868,7 +38867,7 @@
         <v>72</v>
       </c>
       <c r="C785">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="786" spans="1:3" x14ac:dyDescent="0.25">
@@ -38879,7 +38878,7 @@
         <v>73</v>
       </c>
       <c r="C786">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="787" spans="1:3" x14ac:dyDescent="0.25">
@@ -38890,7 +38889,7 @@
         <v>74</v>
       </c>
       <c r="C787">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="788" spans="1:3" x14ac:dyDescent="0.25">
@@ -38901,7 +38900,7 @@
         <v>75</v>
       </c>
       <c r="C788">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="789" spans="1:3" x14ac:dyDescent="0.25">
@@ -38912,7 +38911,7 @@
         <v>76</v>
       </c>
       <c r="C789">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="790" spans="1:3" x14ac:dyDescent="0.25">
@@ -38923,7 +38922,7 @@
         <v>77</v>
       </c>
       <c r="C790">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="791" spans="1:3" x14ac:dyDescent="0.25">
@@ -38934,7 +38933,7 @@
         <v>78</v>
       </c>
       <c r="C791">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="792" spans="1:3" x14ac:dyDescent="0.25">
@@ -38945,7 +38944,7 @@
         <v>79</v>
       </c>
       <c r="C792">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="793" spans="1:3" x14ac:dyDescent="0.25">
@@ -38956,7 +38955,7 @@
         <v>80</v>
       </c>
       <c r="C793">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="794" spans="1:3" x14ac:dyDescent="0.25">
@@ -38967,7 +38966,7 @@
         <v>81</v>
       </c>
       <c r="C794">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="795" spans="1:3" x14ac:dyDescent="0.25">
@@ -38978,7 +38977,7 @@
         <v>82</v>
       </c>
       <c r="C795">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="796" spans="1:3" x14ac:dyDescent="0.25">
@@ -38989,7 +38988,7 @@
         <v>83</v>
       </c>
       <c r="C796">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="797" spans="1:3" x14ac:dyDescent="0.25">
@@ -39000,7 +38999,7 @@
         <v>84</v>
       </c>
       <c r="C797">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="798" spans="1:3" x14ac:dyDescent="0.25">
@@ -39011,7 +39010,7 @@
         <v>85</v>
       </c>
       <c r="C798">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="799" spans="1:3" x14ac:dyDescent="0.25">
@@ -39022,7 +39021,7 @@
         <v>86</v>
       </c>
       <c r="C799">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="800" spans="1:3" x14ac:dyDescent="0.25">
@@ -39033,7 +39032,7 @@
         <v>87</v>
       </c>
       <c r="C800">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="801" spans="1:3" x14ac:dyDescent="0.25">
@@ -39044,7 +39043,7 @@
         <v>88</v>
       </c>
       <c r="C801">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="802" spans="1:3" x14ac:dyDescent="0.25">
@@ -39055,7 +39054,7 @@
         <v>89</v>
       </c>
       <c r="C802">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="803" spans="1:3" x14ac:dyDescent="0.25">
@@ -39066,7 +39065,7 @@
         <v>90</v>
       </c>
       <c r="C803">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="804" spans="1:3" x14ac:dyDescent="0.25">
@@ -39077,7 +39076,7 @@
         <v>91</v>
       </c>
       <c r="C804">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="805" spans="1:3" x14ac:dyDescent="0.25">
@@ -39088,7 +39087,7 @@
         <v>92</v>
       </c>
       <c r="C805">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="806" spans="1:3" x14ac:dyDescent="0.25">
@@ -39099,7 +39098,7 @@
         <v>93</v>
       </c>
       <c r="C806">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="807" spans="1:3" x14ac:dyDescent="0.25">
@@ -39110,7 +39109,7 @@
         <v>94</v>
       </c>
       <c r="C807">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="808" spans="1:3" x14ac:dyDescent="0.25">
@@ -39121,7 +39120,7 @@
         <v>95</v>
       </c>
       <c r="C808">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="809" spans="1:3" x14ac:dyDescent="0.25">
@@ -39132,7 +39131,7 @@
         <v>96</v>
       </c>
       <c r="C809">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="810" spans="1:3" x14ac:dyDescent="0.25">
@@ -39143,7 +39142,7 @@
         <v>97</v>
       </c>
       <c r="C810">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="811" spans="1:3" x14ac:dyDescent="0.25">
@@ -39154,7 +39153,7 @@
         <v>98</v>
       </c>
       <c r="C811">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="812" spans="1:3" x14ac:dyDescent="0.25">
@@ -39165,7 +39164,7 @@
         <v>99</v>
       </c>
       <c r="C812">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="813" spans="1:3" x14ac:dyDescent="0.25">
@@ -39176,7 +39175,7 @@
         <v>100</v>
       </c>
       <c r="C813">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="814" spans="1:3" x14ac:dyDescent="0.25">
@@ -39187,7 +39186,7 @@
         <v>101</v>
       </c>
       <c r="C814">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="815" spans="1:3" x14ac:dyDescent="0.25">
@@ -39198,7 +39197,7 @@
         <v>102</v>
       </c>
       <c r="C815">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="816" spans="1:3" x14ac:dyDescent="0.25">
@@ -39209,7 +39208,7 @@
         <v>103</v>
       </c>
       <c r="C816">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="817" spans="1:3" x14ac:dyDescent="0.25">
@@ -39220,7 +39219,7 @@
         <v>104</v>
       </c>
       <c r="C817">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="818" spans="1:3" x14ac:dyDescent="0.25">
@@ -39231,7 +39230,7 @@
         <v>105</v>
       </c>
       <c r="C818">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="819" spans="1:3" x14ac:dyDescent="0.25">
@@ -39242,7 +39241,7 @@
         <v>106</v>
       </c>
       <c r="C819">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="820" spans="1:3" x14ac:dyDescent="0.25">
@@ -39253,7 +39252,7 @@
         <v>107</v>
       </c>
       <c r="C820">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="821" spans="1:3" x14ac:dyDescent="0.25">
@@ -39264,7 +39263,7 @@
         <v>108</v>
       </c>
       <c r="C821">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="822" spans="1:3" x14ac:dyDescent="0.25">
@@ -39275,7 +39274,7 @@
         <v>109</v>
       </c>
       <c r="C822">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="823" spans="1:3" x14ac:dyDescent="0.25">
@@ -39286,7 +39285,7 @@
         <v>110</v>
       </c>
       <c r="C823">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="824" spans="1:3" x14ac:dyDescent="0.25">
@@ -39297,7 +39296,7 @@
         <v>111</v>
       </c>
       <c r="C824">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="825" spans="1:3" x14ac:dyDescent="0.25">
@@ -39308,7 +39307,7 @@
         <v>112</v>
       </c>
       <c r="C825">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="826" spans="1:3" x14ac:dyDescent="0.25">
@@ -39319,7 +39318,7 @@
         <v>113</v>
       </c>
       <c r="C826">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="827" spans="1:3" x14ac:dyDescent="0.25">
@@ -39330,7 +39329,7 @@
         <v>114</v>
       </c>
       <c r="C827">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="828" spans="1:3" x14ac:dyDescent="0.25">
@@ -39341,7 +39340,7 @@
         <v>115</v>
       </c>
       <c r="C828">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="829" spans="1:3" x14ac:dyDescent="0.25">
@@ -39352,7 +39351,7 @@
         <v>116</v>
       </c>
       <c r="C829">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="830" spans="1:3" x14ac:dyDescent="0.25">
@@ -39363,7 +39362,7 @@
         <v>117</v>
       </c>
       <c r="C830">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="831" spans="1:3" x14ac:dyDescent="0.25">
@@ -39374,7 +39373,7 @@
         <v>118</v>
       </c>
       <c r="C831">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="832" spans="1:3" x14ac:dyDescent="0.25">
@@ -39385,7 +39384,7 @@
         <v>119</v>
       </c>
       <c r="C832">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="833" spans="1:3" x14ac:dyDescent="0.25">
@@ -39396,7 +39395,7 @@
         <v>120</v>
       </c>
       <c r="C833">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="834" spans="1:3" x14ac:dyDescent="0.25">
@@ -39407,7 +39406,7 @@
         <v>121</v>
       </c>
       <c r="C834">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="835" spans="1:3" x14ac:dyDescent="0.25">
@@ -39418,7 +39417,7 @@
         <v>122</v>
       </c>
       <c r="C835">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="836" spans="1:3" x14ac:dyDescent="0.25">
@@ -39429,7 +39428,7 @@
         <v>123</v>
       </c>
       <c r="C836">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="837" spans="1:3" x14ac:dyDescent="0.25">
@@ -39440,7 +39439,7 @@
         <v>124</v>
       </c>
       <c r="C837">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="838" spans="1:3" x14ac:dyDescent="0.25">
@@ -39451,7 +39450,7 @@
         <v>125</v>
       </c>
       <c r="C838">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="839" spans="1:3" x14ac:dyDescent="0.25">
@@ -39462,7 +39461,7 @@
         <v>126</v>
       </c>
       <c r="C839">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="840" spans="1:3" x14ac:dyDescent="0.25">
@@ -39473,7 +39472,7 @@
         <v>127</v>
       </c>
       <c r="C840">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="841" spans="1:3" x14ac:dyDescent="0.25">
@@ -39484,7 +39483,7 @@
         <v>128</v>
       </c>
       <c r="C841">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="842" spans="1:3" x14ac:dyDescent="0.25">
@@ -39495,7 +39494,7 @@
         <v>129</v>
       </c>
       <c r="C842">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="843" spans="1:3" x14ac:dyDescent="0.25">
@@ -39506,7 +39505,7 @@
         <v>130</v>
       </c>
       <c r="C843">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="844" spans="1:3" x14ac:dyDescent="0.25">
@@ -39517,7 +39516,7 @@
         <v>131</v>
       </c>
       <c r="C844">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="845" spans="1:3" x14ac:dyDescent="0.25">
@@ -39528,7 +39527,7 @@
         <v>132</v>
       </c>
       <c r="C845">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="846" spans="1:3" x14ac:dyDescent="0.25">
@@ -39539,7 +39538,7 @@
         <v>133</v>
       </c>
       <c r="C846">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="847" spans="1:3" x14ac:dyDescent="0.25">
@@ -39550,7 +39549,7 @@
         <v>134</v>
       </c>
       <c r="C847">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="848" spans="1:3" x14ac:dyDescent="0.25">
@@ -39561,7 +39560,7 @@
         <v>135</v>
       </c>
       <c r="C848">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="849" spans="1:3" x14ac:dyDescent="0.25">
@@ -39572,7 +39571,7 @@
         <v>136</v>
       </c>
       <c r="C849">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="850" spans="1:3" x14ac:dyDescent="0.25">
@@ -39583,7 +39582,7 @@
         <v>137</v>
       </c>
       <c r="C850">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="851" spans="1:3" x14ac:dyDescent="0.25">
@@ -39594,7 +39593,7 @@
         <v>138</v>
       </c>
       <c r="C851">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="852" spans="1:3" x14ac:dyDescent="0.25">
@@ -39605,7 +39604,7 @@
         <v>139</v>
       </c>
       <c r="C852">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="853" spans="1:3" x14ac:dyDescent="0.25">
@@ -39616,7 +39615,7 @@
         <v>140</v>
       </c>
       <c r="C853">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="854" spans="1:3" x14ac:dyDescent="0.25">
@@ -39627,7 +39626,7 @@
         <v>141</v>
       </c>
       <c r="C854">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="855" spans="1:3" x14ac:dyDescent="0.25">
@@ -39638,7 +39637,7 @@
         <v>142</v>
       </c>
       <c r="C855">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="856" spans="1:3" x14ac:dyDescent="0.25">
@@ -39649,7 +39648,7 @@
         <v>143</v>
       </c>
       <c r="C856">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="857" spans="1:3" x14ac:dyDescent="0.25">
@@ -39660,7 +39659,7 @@
         <v>144</v>
       </c>
       <c r="C857">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="858" spans="1:3" x14ac:dyDescent="0.25">
@@ -39671,7 +39670,7 @@
         <v>145</v>
       </c>
       <c r="C858">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="859" spans="1:3" x14ac:dyDescent="0.25">
@@ -39682,7 +39681,7 @@
         <v>146</v>
       </c>
       <c r="C859">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="860" spans="1:3" x14ac:dyDescent="0.25">
@@ -39693,7 +39692,7 @@
         <v>147</v>
       </c>
       <c r="C860">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="861" spans="1:3" x14ac:dyDescent="0.25">
@@ -39704,7 +39703,7 @@
         <v>148</v>
       </c>
       <c r="C861">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="862" spans="1:3" x14ac:dyDescent="0.25">
@@ -39715,7 +39714,7 @@
         <v>149</v>
       </c>
       <c r="C862">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="863" spans="1:3" x14ac:dyDescent="0.25">
@@ -39726,7 +39725,7 @@
         <v>150</v>
       </c>
       <c r="C863">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="864" spans="1:3" x14ac:dyDescent="0.25">
@@ -39737,7 +39736,7 @@
         <v>151</v>
       </c>
       <c r="C864">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="865" spans="1:3" x14ac:dyDescent="0.25">
@@ -39748,7 +39747,7 @@
         <v>152</v>
       </c>
       <c r="C865">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="866" spans="1:3" x14ac:dyDescent="0.25">
@@ -39759,7 +39758,7 @@
         <v>153</v>
       </c>
       <c r="C866">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="867" spans="1:3" x14ac:dyDescent="0.25">
@@ -39770,7 +39769,7 @@
         <v>154</v>
       </c>
       <c r="C867">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="868" spans="1:3" x14ac:dyDescent="0.25">
@@ -39781,7 +39780,7 @@
         <v>155</v>
       </c>
       <c r="C868">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="869" spans="1:3" x14ac:dyDescent="0.25">
@@ -39792,7 +39791,7 @@
         <v>156</v>
       </c>
       <c r="C869">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="870" spans="1:3" x14ac:dyDescent="0.25">
@@ -39803,7 +39802,7 @@
         <v>157</v>
       </c>
       <c r="C870">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="871" spans="1:3" x14ac:dyDescent="0.25">
@@ -39814,7 +39813,7 @@
         <v>158</v>
       </c>
       <c r="C871">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="872" spans="1:3" x14ac:dyDescent="0.25">
@@ -39825,7 +39824,7 @@
         <v>159</v>
       </c>
       <c r="C872">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="873" spans="1:3" x14ac:dyDescent="0.25">
@@ -39836,7 +39835,7 @@
         <v>160</v>
       </c>
       <c r="C873">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="874" spans="1:3" x14ac:dyDescent="0.25">
@@ -39847,7 +39846,7 @@
         <v>161</v>
       </c>
       <c r="C874">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="875" spans="1:3" x14ac:dyDescent="0.25">
@@ -39858,7 +39857,7 @@
         <v>162</v>
       </c>
       <c r="C875">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="876" spans="1:3" x14ac:dyDescent="0.25">
@@ -39869,7 +39868,7 @@
         <v>163</v>
       </c>
       <c r="C876">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="877" spans="1:3" x14ac:dyDescent="0.25">
@@ -39880,7 +39879,7 @@
         <v>164</v>
       </c>
       <c r="C877">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="878" spans="1:3" x14ac:dyDescent="0.25">
@@ -39891,7 +39890,7 @@
         <v>165</v>
       </c>
       <c r="C878">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="879" spans="1:3" x14ac:dyDescent="0.25">
@@ -39902,7 +39901,7 @@
         <v>166</v>
       </c>
       <c r="C879">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="880" spans="1:3" x14ac:dyDescent="0.25">
@@ -39913,7 +39912,7 @@
         <v>167</v>
       </c>
       <c r="C880">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="881" spans="1:3" x14ac:dyDescent="0.25">
@@ -39924,7 +39923,7 @@
         <v>168</v>
       </c>
       <c r="C881">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="882" spans="1:3" x14ac:dyDescent="0.25">
@@ -39935,7 +39934,7 @@
         <v>169</v>
       </c>
       <c r="C882">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="883" spans="1:3" x14ac:dyDescent="0.25">
@@ -39946,7 +39945,7 @@
         <v>170</v>
       </c>
       <c r="C883">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="884" spans="1:3" x14ac:dyDescent="0.25">
@@ -39957,7 +39956,7 @@
         <v>171</v>
       </c>
       <c r="C884">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="885" spans="1:3" x14ac:dyDescent="0.25">
@@ -39968,7 +39967,7 @@
         <v>172</v>
       </c>
       <c r="C885">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="886" spans="1:3" x14ac:dyDescent="0.25">
@@ -39979,7 +39978,7 @@
         <v>173</v>
       </c>
       <c r="C886">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="887" spans="1:3" x14ac:dyDescent="0.25">
@@ -39990,7 +39989,7 @@
         <v>174</v>
       </c>
       <c r="C887">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="888" spans="1:3" x14ac:dyDescent="0.25">
@@ -40001,7 +40000,7 @@
         <v>175</v>
       </c>
       <c r="C888">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="889" spans="1:3" x14ac:dyDescent="0.25">
@@ -40012,7 +40011,7 @@
         <v>176</v>
       </c>
       <c r="C889">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="890" spans="1:3" x14ac:dyDescent="0.25">
@@ -40023,7 +40022,7 @@
         <v>177</v>
       </c>
       <c r="C890">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="891" spans="1:3" x14ac:dyDescent="0.25">
@@ -40034,7 +40033,7 @@
         <v>178</v>
       </c>
       <c r="C891">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="892" spans="1:3" x14ac:dyDescent="0.25">
@@ -40045,7 +40044,7 @@
         <v>179</v>
       </c>
       <c r="C892">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="893" spans="1:3" x14ac:dyDescent="0.25">
@@ -40056,7 +40055,7 @@
         <v>180</v>
       </c>
       <c r="C893">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="894" spans="1:3" x14ac:dyDescent="0.25">
@@ -40067,7 +40066,7 @@
         <v>181</v>
       </c>
       <c r="C894">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="895" spans="1:3" x14ac:dyDescent="0.25">
@@ -40078,7 +40077,7 @@
         <v>182</v>
       </c>
       <c r="C895">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="896" spans="1:3" x14ac:dyDescent="0.25">
@@ -40089,7 +40088,7 @@
         <v>183</v>
       </c>
       <c r="C896">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="897" spans="1:3" x14ac:dyDescent="0.25">
@@ -40100,7 +40099,7 @@
         <v>184</v>
       </c>
       <c r="C897">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="898" spans="1:3" x14ac:dyDescent="0.25">
@@ -40111,7 +40110,7 @@
         <v>185</v>
       </c>
       <c r="C898">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="899" spans="1:3" x14ac:dyDescent="0.25">
@@ -40122,7 +40121,7 @@
         <v>186</v>
       </c>
       <c r="C899">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="900" spans="1:3" x14ac:dyDescent="0.25">
@@ -40133,7 +40132,7 @@
         <v>187</v>
       </c>
       <c r="C900">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="901" spans="1:3" x14ac:dyDescent="0.25">
@@ -40144,7 +40143,7 @@
         <v>188</v>
       </c>
       <c r="C901">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="902" spans="1:3" x14ac:dyDescent="0.25">
@@ -40155,7 +40154,7 @@
         <v>189</v>
       </c>
       <c r="C902">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="903" spans="1:3" x14ac:dyDescent="0.25">
@@ -40166,7 +40165,7 @@
         <v>190</v>
       </c>
       <c r="C903">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="904" spans="1:3" x14ac:dyDescent="0.25">
@@ -40177,7 +40176,7 @@
         <v>191</v>
       </c>
       <c r="C904">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="905" spans="1:3" x14ac:dyDescent="0.25">
@@ -40188,7 +40187,7 @@
         <v>192</v>
       </c>
       <c r="C905">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="906" spans="1:3" x14ac:dyDescent="0.25">
@@ -40199,7 +40198,7 @@
         <v>193</v>
       </c>
       <c r="C906">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="907" spans="1:3" x14ac:dyDescent="0.25">
@@ -40243,7 +40242,7 @@
         <v>197</v>
       </c>
       <c r="C910">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="911" spans="1:3" x14ac:dyDescent="0.25">
@@ -40254,7 +40253,7 @@
         <v>198</v>
       </c>
       <c r="C911">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="912" spans="1:3" x14ac:dyDescent="0.25">
@@ -40265,7 +40264,7 @@
         <v>195</v>
       </c>
       <c r="C912">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="913" spans="1:3" x14ac:dyDescent="0.25">
@@ -40276,7 +40275,7 @@
         <v>199</v>
       </c>
       <c r="C913">
-        <v>908</v>
+        <v>909</v>
       </c>
     </row>
     <row r="914" spans="1:3" x14ac:dyDescent="0.25">
@@ -40287,7 +40286,7 @@
         <v>200</v>
       </c>
       <c r="C914">
-        <v>908</v>
+        <v>909</v>
       </c>
     </row>
     <row r="915" spans="1:3" x14ac:dyDescent="0.25">
@@ -40298,7 +40297,7 @@
         <v>201</v>
       </c>
       <c r="C915">
-        <v>908</v>
+        <v>909</v>
       </c>
     </row>
     <row r="916" spans="1:3" x14ac:dyDescent="0.25">
@@ -40309,7 +40308,7 @@
         <v>202</v>
       </c>
       <c r="C916">
-        <v>908</v>
+        <v>909</v>
       </c>
     </row>
     <row r="917" spans="1:3" x14ac:dyDescent="0.25">
@@ -40320,7 +40319,7 @@
         <v>203</v>
       </c>
       <c r="C917">
-        <v>908</v>
+        <v>909</v>
       </c>
     </row>
     <row r="918" spans="1:3" x14ac:dyDescent="0.25">
@@ -40331,7 +40330,7 @@
         <v>204</v>
       </c>
       <c r="C918">
-        <v>908</v>
+        <v>909</v>
       </c>
     </row>
     <row r="919" spans="1:3" x14ac:dyDescent="0.25">
@@ -40397,7 +40396,7 @@
         <v>210</v>
       </c>
       <c r="C924">
-        <v>918</v>
+        <v>919</v>
       </c>
     </row>
     <row r="925" spans="1:3" x14ac:dyDescent="0.25">
@@ -40408,7 +40407,7 @@
         <v>211</v>
       </c>
       <c r="C925">
-        <v>918</v>
+        <v>919</v>
       </c>
     </row>
     <row r="926" spans="1:3" x14ac:dyDescent="0.25">
@@ -40419,7 +40418,7 @@
         <v>212</v>
       </c>
       <c r="C926">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="927" spans="1:3" x14ac:dyDescent="0.25">
@@ -40430,7 +40429,7 @@
         <v>213</v>
       </c>
       <c r="C927">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="928" spans="1:3" x14ac:dyDescent="0.25">
@@ -40441,7 +40440,7 @@
         <v>214</v>
       </c>
       <c r="C928">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="929" spans="1:3" x14ac:dyDescent="0.25">
@@ -40452,7 +40451,7 @@
         <v>215</v>
       </c>
       <c r="C929">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="930" spans="1:3" x14ac:dyDescent="0.25">
@@ -40463,7 +40462,7 @@
         <v>216</v>
       </c>
       <c r="C930">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="931" spans="1:3" x14ac:dyDescent="0.25">
@@ -40474,7 +40473,7 @@
         <v>217</v>
       </c>
       <c r="C931">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="932" spans="1:3" x14ac:dyDescent="0.25">
@@ -40485,7 +40484,7 @@
         <v>218</v>
       </c>
       <c r="C932">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="933" spans="1:3" x14ac:dyDescent="0.25">
@@ -40496,7 +40495,7 @@
         <v>219</v>
       </c>
       <c r="C933">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="934" spans="1:3" x14ac:dyDescent="0.25">
@@ -40507,7 +40506,7 @@
         <v>220</v>
       </c>
       <c r="C934">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="935" spans="1:3" x14ac:dyDescent="0.25">
@@ -40518,7 +40517,7 @@
         <v>221</v>
       </c>
       <c r="C935">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="936" spans="1:3" x14ac:dyDescent="0.25">
@@ -40529,7 +40528,7 @@
         <v>222</v>
       </c>
       <c r="C936">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="937" spans="1:3" x14ac:dyDescent="0.25">
@@ -40540,7 +40539,7 @@
         <v>223</v>
       </c>
       <c r="C937">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="938" spans="1:3" x14ac:dyDescent="0.25">
@@ -40551,7 +40550,7 @@
         <v>224</v>
       </c>
       <c r="C938">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="939" spans="1:3" x14ac:dyDescent="0.25">
@@ -40562,7 +40561,7 @@
         <v>225</v>
       </c>
       <c r="C939">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="940" spans="1:3" x14ac:dyDescent="0.25">
@@ -40573,7 +40572,7 @@
         <v>226</v>
       </c>
       <c r="C940">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="941" spans="1:3" x14ac:dyDescent="0.25">
@@ -40584,7 +40583,7 @@
         <v>227</v>
       </c>
       <c r="C941">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="942" spans="1:3" x14ac:dyDescent="0.25">
@@ -40595,7 +40594,7 @@
         <v>228</v>
       </c>
       <c r="C942">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="943" spans="1:3" x14ac:dyDescent="0.25">
@@ -40606,7 +40605,7 @@
         <v>229</v>
       </c>
       <c r="C943">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="944" spans="1:3" x14ac:dyDescent="0.25">
@@ -40617,7 +40616,7 @@
         <v>230</v>
       </c>
       <c r="C944">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="945" spans="1:3" x14ac:dyDescent="0.25">
@@ -40628,7 +40627,7 @@
         <v>231</v>
       </c>
       <c r="C945">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="946" spans="1:3" x14ac:dyDescent="0.25">
@@ -40639,7 +40638,7 @@
         <v>232</v>
       </c>
       <c r="C946">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="947" spans="1:3" x14ac:dyDescent="0.25">
@@ -40650,7 +40649,7 @@
         <v>233</v>
       </c>
       <c r="C947">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="948" spans="1:3" x14ac:dyDescent="0.25">
@@ -40661,7 +40660,7 @@
         <v>234</v>
       </c>
       <c r="C948">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="949" spans="1:3" x14ac:dyDescent="0.25">
@@ -40672,7 +40671,7 @@
         <v>235</v>
       </c>
       <c r="C949">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="950" spans="1:3" x14ac:dyDescent="0.25">
@@ -40683,7 +40682,7 @@
         <v>236</v>
       </c>
       <c r="C950">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="951" spans="1:3" x14ac:dyDescent="0.25">
@@ -40694,7 +40693,7 @@
         <v>237</v>
       </c>
       <c r="C951">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="952" spans="1:3" x14ac:dyDescent="0.25">
@@ -40705,7 +40704,7 @@
         <v>238</v>
       </c>
       <c r="C952">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="953" spans="1:3" x14ac:dyDescent="0.25">
@@ -40716,7 +40715,7 @@
         <v>239</v>
       </c>
       <c r="C953">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="954" spans="1:3" x14ac:dyDescent="0.25">
@@ -40727,7 +40726,7 @@
         <v>240</v>
       </c>
       <c r="C954">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="955" spans="1:3" x14ac:dyDescent="0.25">
@@ -40738,7 +40737,7 @@
         <v>241</v>
       </c>
       <c r="C955">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="956" spans="1:3" x14ac:dyDescent="0.25">
@@ -40749,7 +40748,7 @@
         <v>240</v>
       </c>
       <c r="C956">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="957" spans="1:3" x14ac:dyDescent="0.25">
@@ -40760,7 +40759,7 @@
         <v>241</v>
       </c>
       <c r="C957">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="958" spans="1:3" x14ac:dyDescent="0.25">
@@ -40771,7 +40770,7 @@
         <v>242</v>
       </c>
       <c r="C958">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="959" spans="1:3" x14ac:dyDescent="0.25">
@@ -40782,7 +40781,7 @@
         <v>243</v>
       </c>
       <c r="C959">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="960" spans="1:3" x14ac:dyDescent="0.25">
@@ -40793,7 +40792,7 @@
         <v>244</v>
       </c>
       <c r="C960">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="961" spans="1:3" x14ac:dyDescent="0.25">
@@ -40804,7 +40803,7 @@
         <v>245</v>
       </c>
       <c r="C961">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="962" spans="1:3" x14ac:dyDescent="0.25">
@@ -40815,7 +40814,7 @@
         <v>246</v>
       </c>
       <c r="C962">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="963" spans="1:3" x14ac:dyDescent="0.25">
@@ -40826,7 +40825,7 @@
         <v>247</v>
       </c>
       <c r="C963">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="964" spans="1:3" x14ac:dyDescent="0.25">
@@ -40837,7 +40836,7 @@
         <v>248</v>
       </c>
       <c r="C964">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="965" spans="1:3" x14ac:dyDescent="0.25">
@@ -40848,7 +40847,7 @@
         <v>249</v>
       </c>
       <c r="C965">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="966" spans="1:3" x14ac:dyDescent="0.25">
@@ -40859,7 +40858,7 @@
         <v>250</v>
       </c>
       <c r="C966">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="967" spans="1:3" x14ac:dyDescent="0.25">
@@ -40870,7 +40869,7 @@
         <v>251</v>
       </c>
       <c r="C967">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="968" spans="1:3" x14ac:dyDescent="0.25">
@@ -40881,7 +40880,7 @@
         <v>252</v>
       </c>
       <c r="C968">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="969" spans="1:3" x14ac:dyDescent="0.25">
@@ -40892,7 +40891,7 @@
         <v>253</v>
       </c>
       <c r="C969">
-        <v>920</v>
+        <v>921</v>
       </c>
     </row>
     <row r="970" spans="1:3" x14ac:dyDescent="0.25">
@@ -40903,7 +40902,7 @@
         <v>254</v>
       </c>
       <c r="C970">
-        <v>920</v>
+        <v>921</v>
       </c>
     </row>
     <row r="971" spans="1:3" x14ac:dyDescent="0.25">
@@ -40914,7 +40913,7 @@
         <v>255</v>
       </c>
       <c r="C971">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="972" spans="1:3" x14ac:dyDescent="0.25">
@@ -40925,7 +40924,7 @@
         <v>256</v>
       </c>
       <c r="C972">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="973" spans="1:3" x14ac:dyDescent="0.25">
@@ -40936,7 +40935,7 @@
         <v>257</v>
       </c>
       <c r="C973">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="974" spans="1:3" x14ac:dyDescent="0.25">
@@ -40947,7 +40946,7 @@
         <v>258</v>
       </c>
       <c r="C974">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="975" spans="1:3" x14ac:dyDescent="0.25">
@@ -40958,7 +40957,7 @@
         <v>259</v>
       </c>
       <c r="C975">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="976" spans="1:3" x14ac:dyDescent="0.25">
@@ -40969,7 +40968,7 @@
         <v>260</v>
       </c>
       <c r="C976">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="977" spans="1:3" x14ac:dyDescent="0.25">
@@ -40980,7 +40979,7 @@
         <v>261</v>
       </c>
       <c r="C977">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="978" spans="1:3" x14ac:dyDescent="0.25">
@@ -40991,7 +40990,7 @@
         <v>262</v>
       </c>
       <c r="C978">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="979" spans="1:3" x14ac:dyDescent="0.25">
@@ -41002,7 +41001,7 @@
         <v>263</v>
       </c>
       <c r="C979">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="980" spans="1:3" x14ac:dyDescent="0.25">
@@ -41013,7 +41012,7 @@
         <v>264</v>
       </c>
       <c r="C980">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="981" spans="1:3" x14ac:dyDescent="0.25">
@@ -41024,7 +41023,7 @@
         <v>265</v>
       </c>
       <c r="C981">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="982" spans="1:3" x14ac:dyDescent="0.25">
@@ -41035,7 +41034,7 @@
         <v>266</v>
       </c>
       <c r="C982">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="983" spans="1:3" x14ac:dyDescent="0.25">
@@ -41046,7 +41045,7 @@
         <v>267</v>
       </c>
       <c r="C983">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="984" spans="1:3" x14ac:dyDescent="0.25">
@@ -41057,7 +41056,7 @@
         <v>268</v>
       </c>
       <c r="C984">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="985" spans="1:3" x14ac:dyDescent="0.25">
@@ -41068,7 +41067,7 @@
         <v>269</v>
       </c>
       <c r="C985">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="986" spans="1:3" x14ac:dyDescent="0.25">
@@ -41079,7 +41078,7 @@
         <v>270</v>
       </c>
       <c r="C986">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="987" spans="1:3" x14ac:dyDescent="0.25">
@@ -41090,7 +41089,7 @@
         <v>271</v>
       </c>
       <c r="C987">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="988" spans="1:3" x14ac:dyDescent="0.25">
@@ -41101,7 +41100,7 @@
         <v>272</v>
       </c>
       <c r="C988">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="989" spans="1:3" x14ac:dyDescent="0.25">
@@ -41112,7 +41111,7 @@
         <v>273</v>
       </c>
       <c r="C989">
-        <v>922</v>
+        <v>923</v>
       </c>
     </row>
     <row r="990" spans="1:3" x14ac:dyDescent="0.25">
@@ -41123,7 +41122,7 @@
         <v>274</v>
       </c>
       <c r="C990">
-        <v>922</v>
+        <v>923</v>
       </c>
     </row>
     <row r="991" spans="1:3" x14ac:dyDescent="0.25">
@@ -41134,7 +41133,7 @@
         <v>275</v>
       </c>
       <c r="C991">
-        <v>922</v>
+        <v>923</v>
       </c>
     </row>
     <row r="992" spans="1:3" x14ac:dyDescent="0.25">
@@ -41145,7 +41144,7 @@
         <v>276</v>
       </c>
       <c r="C992">
-        <v>922</v>
+        <v>923</v>
       </c>
     </row>
     <row r="993" spans="1:3" x14ac:dyDescent="0.25">

--- a/Keywords/keywords-category.xlsx
+++ b/Keywords/keywords-category.xlsx
@@ -30225,8 +30225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2687"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2581" workbookViewId="0">
-      <selection activeCell="C2679" sqref="C2679"/>
+    <sheetView tabSelected="1" topLeftCell="A1930" workbookViewId="0">
+      <selection activeCell="B1947" sqref="B1947"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
